--- a/SST_referral_options.xlsx
+++ b/SST_referral_options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshmavj\Desktop\Dash_Design_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B0219-D023-4948-815E-F4710765244A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877419D8-D177-4916-8C32-BBA1454A90CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{7AFA0A77-515C-485B-B22A-2C0F7CBD4C1A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="182">
   <si>
     <t>Service Function</t>
   </si>
@@ -6921,10 +6921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EB169F-E9D2-4A55-A0AE-6164311762E5}">
-  <dimension ref="A1:C463"/>
+  <dimension ref="A1:C464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="A456" sqref="A456"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7456,7 +7456,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>82</v>
@@ -7469,8 +7469,8 @@
       <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>83</v>
+      <c r="C49" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -7480,8 +7480,8 @@
       <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>84</v>
+      <c r="C50" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -7492,7 +7492,7 @@
         <v>95</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -7500,10 +7500,10 @@
         <v>33</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>51</v>
+        <v>95</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -7513,8 +7513,8 @@
       <c r="B53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>52</v>
+      <c r="C53" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -7525,7 +7525,7 @@
         <v>77</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -7536,7 +7536,7 @@
         <v>77</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -7546,8 +7546,8 @@
       <c r="B56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>53</v>
+      <c r="C56" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -7558,7 +7558,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -7569,7 +7569,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -7579,8 +7579,8 @@
       <c r="B59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>56</v>
+      <c r="C59" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -7588,10 +7588,10 @@
         <v>33</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -7599,10 +7599,10 @@
         <v>33</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -7613,7 +7613,7 @@
         <v>80</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -7624,7 +7624,7 @@
         <v>80</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -7635,7 +7635,7 @@
         <v>80</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -7645,8 +7645,8 @@
       <c r="B65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>69</v>
+      <c r="C65" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -7657,7 +7657,7 @@
         <v>80</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -7667,8 +7667,8 @@
       <c r="B67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>71</v>
+      <c r="C67" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -7679,7 +7679,7 @@
         <v>80</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -7687,10 +7687,10 @@
         <v>33</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -7700,8 +7700,8 @@
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>7</v>
+      <c r="C70" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -7712,7 +7712,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -7720,10 +7720,10 @@
         <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -7734,7 +7734,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -7744,8 +7744,8 @@
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="20" t="s">
-        <v>13</v>
+      <c r="C74" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -7756,7 +7756,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -7767,7 +7767,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -7778,7 +7778,7 @@
         <v>10</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -7789,18 +7789,18 @@
         <v>10</v>
       </c>
       <c r="C78" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -7811,7 +7811,7 @@
         <v>94</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -7819,10 +7819,10 @@
         <v>170</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -7830,10 +7830,10 @@
         <v>170</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -7844,7 +7844,7 @@
         <v>10</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -7855,7 +7855,7 @@
         <v>10</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7866,7 +7866,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7877,7 +7877,7 @@
         <v>10</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7888,7 +7888,7 @@
         <v>10</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -7899,7 +7899,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7907,10 +7907,10 @@
         <v>170</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -7918,10 +7918,10 @@
         <v>170</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7932,7 +7932,7 @@
         <v>76</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -7943,7 +7943,7 @@
         <v>76</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7954,7 +7954,7 @@
         <v>76</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -7965,7 +7965,7 @@
         <v>76</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -7976,7 +7976,7 @@
         <v>76</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -7987,7 +7987,7 @@
         <v>76</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -7998,7 +7998,7 @@
         <v>76</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -8009,7 +8009,7 @@
         <v>76</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -8020,7 +8020,7 @@
         <v>76</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -8031,7 +8031,7 @@
         <v>76</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -8039,10 +8039,10 @@
         <v>170</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -8053,7 +8053,7 @@
         <v>77</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -8064,7 +8064,7 @@
         <v>77</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -8075,7 +8075,7 @@
         <v>77</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -8086,7 +8086,7 @@
         <v>77</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -8097,7 +8097,7 @@
         <v>77</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -8108,7 +8108,7 @@
         <v>77</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -8119,7 +8119,7 @@
         <v>77</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -8127,10 +8127,10 @@
         <v>170</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -8138,10 +8138,10 @@
         <v>170</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -8152,7 +8152,7 @@
         <v>78</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -8163,7 +8163,7 @@
         <v>78</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -8171,10 +8171,10 @@
         <v>170</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -8185,7 +8185,7 @@
         <v>98</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -8193,10 +8193,10 @@
         <v>170</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -8204,10 +8204,10 @@
         <v>170</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -8215,10 +8215,10 @@
         <v>170</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -8229,7 +8229,7 @@
         <v>96</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -8240,7 +8240,7 @@
         <v>96</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -8248,32 +8248,32 @@
         <v>170</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C121" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -8284,7 +8284,7 @@
         <v>99</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -8295,7 +8295,7 @@
         <v>99</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -8306,7 +8306,7 @@
         <v>99</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -8317,18 +8317,18 @@
         <v>99</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -8336,21 +8336,21 @@
         <v>102</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B129" s="19" t="s">
-        <v>78</v>
+      <c r="B129" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -8361,7 +8361,7 @@
         <v>78</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -8372,29 +8372,29 @@
         <v>78</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B132" s="14" t="s">
-        <v>100</v>
+      <c r="B132" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B133" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>57</v>
+      <c r="B133" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -8405,7 +8405,7 @@
         <v>99</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -8416,7 +8416,7 @@
         <v>99</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -8427,29 +8427,29 @@
         <v>99</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>15</v>
+      <c r="C137" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>11</v>
+      <c r="B138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -8460,7 +8460,7 @@
         <v>10</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -8470,8 +8470,8 @@
       <c r="B140" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>13</v>
+      <c r="C140" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -8482,7 +8482,7 @@
         <v>10</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -8493,7 +8493,7 @@
         <v>10</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -8504,7 +8504,7 @@
         <v>10</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -8515,7 +8515,7 @@
         <v>10</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -8523,10 +8523,10 @@
         <v>102</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -8534,10 +8534,10 @@
         <v>102</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -8547,8 +8547,8 @@
       <c r="B147" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C147" s="20" t="s">
-        <v>52</v>
+      <c r="C147" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -8559,7 +8559,7 @@
         <v>77</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -8570,7 +8570,7 @@
         <v>77</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -8580,8 +8580,8 @@
       <c r="B150" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C150" s="14" t="s">
-        <v>53</v>
+      <c r="C150" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -8592,7 +8592,7 @@
         <v>77</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -8603,7 +8603,7 @@
         <v>77</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -8613,8 +8613,8 @@
       <c r="B153" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C153" s="19" t="s">
-        <v>56</v>
+      <c r="C153" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -8622,32 +8622,32 @@
         <v>102</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C155" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C156" s="14" t="s">
-        <v>91</v>
+        <v>59</v>
+      </c>
+      <c r="C156" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -8658,18 +8658,18 @@
         <v>98</v>
       </c>
       <c r="C157" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C158" s="14" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B158" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -8677,10 +8677,10 @@
         <v>103</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -8691,7 +8691,7 @@
         <v>98</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -8699,10 +8699,10 @@
         <v>103</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -8713,7 +8713,7 @@
         <v>77</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -8724,7 +8724,7 @@
         <v>77</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -8735,7 +8735,7 @@
         <v>77</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -8746,7 +8746,7 @@
         <v>77</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -8757,7 +8757,7 @@
         <v>77</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -8768,7 +8768,7 @@
         <v>77</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -8779,18 +8779,18 @@
         <v>77</v>
       </c>
       <c r="C168" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169" s="16" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C169" s="14" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -8798,21 +8798,21 @@
         <v>105</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B171" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>57</v>
+      <c r="B171" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -8823,7 +8823,7 @@
         <v>78</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -8834,29 +8834,29 @@
         <v>78</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B174" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C174" s="14" t="s">
-        <v>100</v>
+      <c r="B174" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B175" s="19" t="s">
-        <v>10</v>
+      <c r="B175" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -8867,7 +8867,7 @@
         <v>10</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -8877,8 +8877,8 @@
       <c r="B177" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="20" t="s">
-        <v>13</v>
+      <c r="C177" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -8889,7 +8889,7 @@
         <v>10</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -8900,7 +8900,7 @@
         <v>10</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -8911,7 +8911,7 @@
         <v>10</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -8922,7 +8922,7 @@
         <v>10</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -8930,10 +8930,10 @@
         <v>105</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C182" s="14" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -8941,10 +8941,10 @@
         <v>105</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -8954,8 +8954,8 @@
       <c r="B184" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C184" s="20" t="s">
-        <v>37</v>
+      <c r="C184" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -8966,7 +8966,7 @@
         <v>75</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -8977,7 +8977,7 @@
         <v>75</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -8985,10 +8985,10 @@
         <v>105</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C187" s="14" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -8998,8 +8998,8 @@
       <c r="B188" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C188" s="20" t="s">
-        <v>52</v>
+      <c r="C188" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -9010,7 +9010,7 @@
         <v>77</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -9021,7 +9021,7 @@
         <v>77</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -9031,8 +9031,8 @@
       <c r="B191" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C191" s="14" t="s">
-        <v>53</v>
+      <c r="C191" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -9043,7 +9043,7 @@
         <v>77</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -9054,7 +9054,7 @@
         <v>77</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -9064,8 +9064,8 @@
       <c r="B194" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C194" s="19" t="s">
-        <v>56</v>
+      <c r="C194" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -9073,32 +9073,32 @@
         <v>105</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C195" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C196" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C196" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C197" s="14" t="s">
-        <v>91</v>
+        <v>59</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -9108,19 +9108,19 @@
       <c r="B198" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C198" s="20" t="s">
-        <v>92</v>
+      <c r="C198" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>99</v>
+      <c r="B199" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -9131,7 +9131,7 @@
         <v>99</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -9142,7 +9142,7 @@
         <v>99</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -9153,7 +9153,7 @@
         <v>99</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -9164,18 +9164,18 @@
         <v>99</v>
       </c>
       <c r="C203" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C204" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -9183,10 +9183,10 @@
         <v>106</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -9194,10 +9194,10 @@
         <v>106</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -9208,7 +9208,7 @@
         <v>10</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -9219,7 +9219,7 @@
         <v>10</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -9230,7 +9230,7 @@
         <v>10</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -9241,7 +9241,7 @@
         <v>10</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -9252,7 +9252,7 @@
         <v>10</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -9263,7 +9263,7 @@
         <v>10</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -9271,10 +9271,10 @@
         <v>106</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -9285,7 +9285,7 @@
         <v>76</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -9296,7 +9296,7 @@
         <v>76</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -9307,7 +9307,7 @@
         <v>76</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -9318,7 +9318,7 @@
         <v>76</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -9329,7 +9329,7 @@
         <v>76</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -9340,7 +9340,7 @@
         <v>76</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -9351,7 +9351,7 @@
         <v>76</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -9362,7 +9362,7 @@
         <v>76</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -9373,7 +9373,7 @@
         <v>76</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -9384,7 +9384,7 @@
         <v>76</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -9392,10 +9392,10 @@
         <v>106</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -9406,7 +9406,7 @@
         <v>78</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -9417,7 +9417,7 @@
         <v>78</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -9425,32 +9425,32 @@
         <v>106</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B228" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C228" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="C229" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -9461,7 +9461,7 @@
         <v>99</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -9472,7 +9472,7 @@
         <v>99</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -9483,7 +9483,7 @@
         <v>99</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -9494,7 +9494,7 @@
         <v>99</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -9502,10 +9502,10 @@
         <v>106</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -9516,7 +9516,7 @@
         <v>80</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -9527,7 +9527,7 @@
         <v>80</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -9538,7 +9538,7 @@
         <v>80</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -9549,7 +9549,7 @@
         <v>80</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -9560,7 +9560,7 @@
         <v>80</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -9571,7 +9571,7 @@
         <v>80</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -9582,7 +9582,7 @@
         <v>80</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -9590,10 +9590,10 @@
         <v>106</v>
       </c>
       <c r="B242" s="16" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -9604,7 +9604,7 @@
         <v>5</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -9615,7 +9615,7 @@
         <v>5</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -9623,10 +9623,10 @@
         <v>106</v>
       </c>
       <c r="B245" s="16" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -9637,7 +9637,7 @@
         <v>77</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -9648,7 +9648,7 @@
         <v>77</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -9659,7 +9659,7 @@
         <v>77</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -9670,7 +9670,7 @@
         <v>77</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -9681,7 +9681,7 @@
         <v>77</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -9692,7 +9692,7 @@
         <v>77</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -9703,18 +9703,18 @@
         <v>77</v>
       </c>
       <c r="C252" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C253" s="16" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B253" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C253" s="14" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -9724,30 +9724,30 @@
       <c r="B254" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C254" s="20" t="s">
-        <v>82</v>
+      <c r="C254" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B255" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C255" s="14" t="s">
-        <v>171</v>
+      <c r="B255" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C255" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B256" s="19" t="s">
-        <v>10</v>
+      <c r="B256" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -9758,7 +9758,7 @@
         <v>10</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -9768,8 +9768,8 @@
       <c r="B258" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C258" s="20" t="s">
-        <v>13</v>
+      <c r="C258" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -9780,7 +9780,7 @@
         <v>10</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -9791,7 +9791,7 @@
         <v>10</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -9802,7 +9802,7 @@
         <v>10</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -9813,18 +9813,18 @@
         <v>10</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C263" s="14" t="s">
-        <v>57</v>
+      <c r="B263" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -9835,7 +9835,7 @@
         <v>78</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -9846,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -9854,10 +9854,10 @@
         <v>110</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -9867,8 +9867,8 @@
       <c r="B267" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C267" s="20" t="s">
-        <v>41</v>
+      <c r="C267" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -9879,7 +9879,7 @@
         <v>76</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -9889,8 +9889,8 @@
       <c r="B269" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C269" s="14" t="s">
-        <v>43</v>
+      <c r="C269" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -9900,8 +9900,8 @@
       <c r="B270" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C270" s="20" t="s">
-        <v>44</v>
+      <c r="C270" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -9912,7 +9912,7 @@
         <v>76</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -9923,7 +9923,7 @@
         <v>76</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -9934,7 +9934,7 @@
         <v>76</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -9945,7 +9945,7 @@
         <v>76</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -9956,7 +9956,7 @@
         <v>76</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -9967,7 +9967,7 @@
         <v>76</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -9975,10 +9975,10 @@
         <v>110</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C277" s="14" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="C277" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -9988,8 +9988,8 @@
       <c r="B278" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C278" s="20" t="s">
-        <v>52</v>
+      <c r="C278" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -10000,7 +10000,7 @@
         <v>77</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -10011,7 +10011,7 @@
         <v>77</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -10021,8 +10021,8 @@
       <c r="B281" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C281" s="14" t="s">
-        <v>53</v>
+      <c r="C281" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -10033,7 +10033,7 @@
         <v>77</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -10044,7 +10044,7 @@
         <v>77</v>
       </c>
       <c r="C283" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -10054,8 +10054,8 @@
       <c r="B284" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C284" s="21" t="s">
-        <v>56</v>
+      <c r="C284" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -10063,10 +10063,10 @@
         <v>110</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C285" s="14" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="C285" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -10077,7 +10077,7 @@
         <v>98</v>
       </c>
       <c r="C286" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -10085,10 +10085,10 @@
         <v>110</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C287" s="20" t="s">
-        <v>57</v>
+        <v>98</v>
+      </c>
+      <c r="C287" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -10099,7 +10099,7 @@
         <v>99</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -10110,7 +10110,7 @@
         <v>99</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -10121,7 +10121,7 @@
         <v>99</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -10132,7 +10132,7 @@
         <v>99</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -10140,10 +10140,10 @@
         <v>110</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C292" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="C292" s="20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -10154,7 +10154,7 @@
         <v>111</v>
       </c>
       <c r="C293" s="14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -10165,18 +10165,18 @@
         <v>111</v>
       </c>
       <c r="C294" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C295" s="14" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B295" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C295" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -10187,7 +10187,7 @@
         <v>121</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -10198,7 +10198,7 @@
         <v>121</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -10209,7 +10209,7 @@
         <v>121</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -10220,7 +10220,7 @@
         <v>121</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -10231,7 +10231,7 @@
         <v>121</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -10242,7 +10242,7 @@
         <v>121</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -10250,10 +10250,10 @@
         <v>120</v>
       </c>
       <c r="B302" s="16" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -10261,10 +10261,10 @@
         <v>120</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -10275,7 +10275,7 @@
         <v>78</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -10286,7 +10286,7 @@
         <v>78</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -10294,10 +10294,10 @@
         <v>120</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -10308,7 +10308,7 @@
         <v>94</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -10316,10 +10316,10 @@
         <v>120</v>
       </c>
       <c r="B308" s="16" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -10330,7 +10330,7 @@
         <v>10</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -10341,7 +10341,7 @@
         <v>10</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -10352,7 +10352,7 @@
         <v>10</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -10363,7 +10363,7 @@
         <v>10</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -10374,7 +10374,7 @@
         <v>10</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -10385,7 +10385,7 @@
         <v>10</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -10393,10 +10393,10 @@
         <v>120</v>
       </c>
       <c r="B315" s="16" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -10407,7 +10407,7 @@
         <v>76</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -10418,7 +10418,7 @@
         <v>76</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -10429,7 +10429,7 @@
         <v>76</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -10440,7 +10440,7 @@
         <v>76</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -10451,7 +10451,7 @@
         <v>76</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -10462,7 +10462,7 @@
         <v>76</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -10473,7 +10473,7 @@
         <v>76</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -10484,7 +10484,7 @@
         <v>76</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -10495,7 +10495,7 @@
         <v>76</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -10506,7 +10506,7 @@
         <v>76</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -10514,10 +10514,10 @@
         <v>120</v>
       </c>
       <c r="B326" s="16" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -10525,10 +10525,10 @@
         <v>120</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -10539,7 +10539,7 @@
         <v>77</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -10550,7 +10550,7 @@
         <v>77</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -10561,7 +10561,7 @@
         <v>77</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -10572,7 +10572,7 @@
         <v>77</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -10583,7 +10583,7 @@
         <v>77</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -10594,7 +10594,7 @@
         <v>77</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -10605,7 +10605,7 @@
         <v>77</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -10613,10 +10613,10 @@
         <v>120</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -10627,7 +10627,7 @@
         <v>98</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -10638,7 +10638,7 @@
         <v>98</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -10646,10 +10646,10 @@
         <v>120</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -10660,7 +10660,7 @@
         <v>99</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -10671,7 +10671,7 @@
         <v>99</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -10682,7 +10682,7 @@
         <v>99</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -10690,10 +10690,10 @@
         <v>120</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -10704,7 +10704,7 @@
         <v>111</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -10715,29 +10715,29 @@
         <v>111</v>
       </c>
       <c r="C344" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C345" s="16" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C345" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B346" s="14" t="s">
-        <v>171</v>
+      <c r="B346" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -10745,21 +10745,21 @@
         <v>169</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B348" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C348" s="20" t="s">
-        <v>123</v>
+      <c r="B348" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C348" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -10770,7 +10770,7 @@
         <v>127</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -10781,7 +10781,7 @@
         <v>127</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -10792,7 +10792,7 @@
         <v>127</v>
       </c>
       <c r="C351" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -10800,10 +10800,10 @@
         <v>169</v>
       </c>
       <c r="B352" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C352" s="14" t="s">
         <v>127</v>
+      </c>
+      <c r="C352" s="20" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -10814,7 +10814,7 @@
         <v>132</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -10824,30 +10824,30 @@
       <c r="B354" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C354" s="20" t="s">
-        <v>129</v>
+      <c r="C354" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C355" s="15" t="s">
-        <v>130</v>
+      <c r="B355" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C355" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B356" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C356" s="14" t="s">
-        <v>51</v>
+      <c r="B356" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C356" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -10857,8 +10857,8 @@
       <c r="B357" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C357" s="20" t="s">
-        <v>52</v>
+      <c r="C357" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -10869,7 +10869,7 @@
         <v>77</v>
       </c>
       <c r="C358" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -10880,7 +10880,7 @@
         <v>77</v>
       </c>
       <c r="C359" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -10891,7 +10891,7 @@
         <v>77</v>
       </c>
       <c r="C360" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -10902,7 +10902,7 @@
         <v>77</v>
       </c>
       <c r="C361" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -10912,8 +10912,8 @@
       <c r="B362" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C362" s="14" t="s">
-        <v>55</v>
+      <c r="C362" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -10923,8 +10923,8 @@
       <c r="B363" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C363" s="20" t="s">
-        <v>56</v>
+      <c r="C363" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -10932,10 +10932,10 @@
         <v>169</v>
       </c>
       <c r="B364" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C364" s="14" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="C364" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -10946,7 +10946,7 @@
         <v>78</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -10957,7 +10957,7 @@
         <v>78</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -10965,32 +10965,32 @@
         <v>169</v>
       </c>
       <c r="B367" s="19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B368" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C368" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C368" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>98</v>
+      <c r="B369" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C369" s="24" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -11000,8 +11000,8 @@
       <c r="B370" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C370" s="20" t="s">
-        <v>92</v>
+      <c r="C370" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -11009,10 +11009,10 @@
         <v>169</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C371" s="20" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -11023,7 +11023,7 @@
         <v>99</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -11034,7 +11034,7 @@
         <v>99</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -11045,7 +11045,7 @@
         <v>99</v>
       </c>
       <c r="C374" s="20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -11056,18 +11056,18 @@
         <v>99</v>
       </c>
       <c r="C375" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C376" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A376" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B376" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C376" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -11078,7 +11078,7 @@
         <v>138</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -11089,7 +11089,7 @@
         <v>138</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -11100,7 +11100,7 @@
         <v>138</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -11108,10 +11108,10 @@
         <v>137</v>
       </c>
       <c r="B380" s="16" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -11119,10 +11119,10 @@
         <v>137</v>
       </c>
       <c r="B381" s="16" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -11130,10 +11130,10 @@
         <v>137</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -11144,7 +11144,7 @@
         <v>10</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -11155,7 +11155,7 @@
         <v>10</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -11166,7 +11166,7 @@
         <v>10</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -11177,7 +11177,7 @@
         <v>10</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -11188,7 +11188,7 @@
         <v>10</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -11199,7 +11199,7 @@
         <v>10</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -11207,10 +11207,10 @@
         <v>137</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -11221,7 +11221,7 @@
         <v>78</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -11232,7 +11232,7 @@
         <v>78</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -11240,32 +11240,32 @@
         <v>137</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B393" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C393" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C393" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A394" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B394" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C394" s="16" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C394" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -11276,7 +11276,7 @@
         <v>5</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -11287,7 +11287,7 @@
         <v>5</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -11295,10 +11295,10 @@
         <v>137</v>
       </c>
       <c r="B397" s="16" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -11309,7 +11309,7 @@
         <v>77</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -11320,7 +11320,7 @@
         <v>77</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -11331,7 +11331,7 @@
         <v>77</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -11342,7 +11342,7 @@
         <v>77</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
@@ -11353,7 +11353,7 @@
         <v>77</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
@@ -11364,7 +11364,7 @@
         <v>77</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
@@ -11375,7 +11375,7 @@
         <v>77</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -11383,10 +11383,10 @@
         <v>137</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
@@ -11397,7 +11397,7 @@
         <v>98</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
@@ -11405,10 +11405,10 @@
         <v>137</v>
       </c>
       <c r="B407" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -11416,10 +11416,10 @@
         <v>137</v>
       </c>
       <c r="B408" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -11430,7 +11430,7 @@
         <v>99</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -11441,7 +11441,7 @@
         <v>99</v>
       </c>
       <c r="C410" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -11452,7 +11452,7 @@
         <v>99</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -11463,18 +11463,18 @@
         <v>99</v>
       </c>
       <c r="C412" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B413" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C413" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B413" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C413" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -11482,10 +11482,10 @@
         <v>139</v>
       </c>
       <c r="B414" s="19" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -11496,7 +11496,7 @@
         <v>111</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
@@ -11507,7 +11507,7 @@
         <v>111</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -11515,10 +11515,10 @@
         <v>139</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -11529,7 +11529,7 @@
         <v>78</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -11540,7 +11540,7 @@
         <v>78</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
@@ -11548,32 +11548,32 @@
         <v>139</v>
       </c>
       <c r="B420" s="19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C421" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C421" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B422" s="19" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C422" s="24" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
@@ -11583,8 +11583,8 @@
       <c r="B423" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C423" s="20" t="s">
-        <v>92</v>
+      <c r="C423" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -11592,10 +11592,10 @@
         <v>139</v>
       </c>
       <c r="B424" s="19" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C424" s="20" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
@@ -11606,7 +11606,7 @@
         <v>141</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
@@ -11614,10 +11614,10 @@
         <v>139</v>
       </c>
       <c r="B426" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C426" s="14" t="s">
-        <v>35</v>
+        <v>141</v>
+      </c>
+      <c r="C426" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
@@ -11625,10 +11625,10 @@
         <v>139</v>
       </c>
       <c r="B427" s="19" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
@@ -11638,8 +11638,8 @@
       <c r="B428" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C428" s="20" t="s">
-        <v>52</v>
+      <c r="C428" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -11650,7 +11650,7 @@
         <v>77</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
@@ -11661,7 +11661,7 @@
         <v>77</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
@@ -11672,7 +11672,7 @@
         <v>77</v>
       </c>
       <c r="C431" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
@@ -11683,7 +11683,7 @@
         <v>77</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
@@ -11693,8 +11693,8 @@
       <c r="B433" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C433" s="14" t="s">
-        <v>55</v>
+      <c r="C433" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
@@ -11704,19 +11704,19 @@
       <c r="B434" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C434" s="20" t="s">
+      <c r="C434" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B435" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C435" s="20" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A435" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B435" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C435" s="16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
@@ -11727,7 +11727,7 @@
         <v>176</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
@@ -11735,10 +11735,10 @@
         <v>142</v>
       </c>
       <c r="B437" s="16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -11746,10 +11746,10 @@
         <v>142</v>
       </c>
       <c r="B438" s="16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -11757,10 +11757,10 @@
         <v>142</v>
       </c>
       <c r="B439" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -11771,7 +11771,7 @@
         <v>176</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -11782,7 +11782,7 @@
         <v>176</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
@@ -11790,10 +11790,10 @@
         <v>142</v>
       </c>
       <c r="B442" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
@@ -11804,7 +11804,7 @@
         <v>180</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
@@ -11815,7 +11815,7 @@
         <v>180</v>
       </c>
       <c r="C444" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
@@ -11826,7 +11826,7 @@
         <v>180</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
@@ -11834,10 +11834,10 @@
         <v>142</v>
       </c>
       <c r="B446" s="16" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
@@ -11845,10 +11845,10 @@
         <v>142</v>
       </c>
       <c r="B447" s="16" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
@@ -11856,10 +11856,10 @@
         <v>142</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
@@ -11867,10 +11867,10 @@
         <v>142</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
@@ -11878,10 +11878,10 @@
         <v>142</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -11892,7 +11892,7 @@
         <v>178</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
@@ -11900,10 +11900,10 @@
         <v>142</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
@@ -11911,10 +11911,10 @@
         <v>142</v>
       </c>
       <c r="B453" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
@@ -11922,10 +11922,10 @@
         <v>142</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
@@ -11933,32 +11933,32 @@
         <v>142</v>
       </c>
       <c r="B455" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C455" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B456" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C455" s="16" t="s">
+      <c r="C456" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
         <v>143</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B457" t="s">
         <v>98</v>
       </c>
-      <c r="C456" s="4" t="s">
+      <c r="C457" s="4" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A457" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B457" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C457" s="16" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
@@ -11966,10 +11966,10 @@
         <v>168</v>
       </c>
       <c r="B458" s="16" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -11977,10 +11977,10 @@
         <v>168</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="C459" s="16" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
@@ -11991,7 +11991,7 @@
         <v>5</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.3">
@@ -12002,7 +12002,7 @@
         <v>5</v>
       </c>
       <c r="C461" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.3">
@@ -12010,10 +12010,10 @@
         <v>168</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C462" s="16" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.3">
@@ -12024,6 +12024,17 @@
         <v>79</v>
       </c>
       <c r="C463" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B464" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C464" s="16" t="s">
         <v>62</v>
       </c>
     </row>
